--- a/natmiOut/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H2">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I2">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J2">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N2">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O2">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P2">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q2">
-        <v>2052.06202521977</v>
+        <v>2078.036367390037</v>
       </c>
       <c r="R2">
-        <v>2052.06202521977</v>
+        <v>8312.145469560148</v>
       </c>
       <c r="S2">
-        <v>0.008247566411067775</v>
+        <v>0.00775937088290897</v>
       </c>
       <c r="T2">
-        <v>0.008247566411067775</v>
+        <v>0.003885656646612775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H3">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I3">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J3">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N3">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P3">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q3">
-        <v>1936.641891386361</v>
+        <v>2101.409656719955</v>
       </c>
       <c r="R3">
-        <v>1936.641891386361</v>
+        <v>12608.45794031973</v>
       </c>
       <c r="S3">
-        <v>0.007783674380872724</v>
+        <v>0.007846646555034071</v>
       </c>
       <c r="T3">
-        <v>0.007783674380872724</v>
+        <v>0.005894042468187637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H4">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I4">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J4">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N4">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O4">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P4">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q4">
-        <v>1933.535035270998</v>
+        <v>1968.072141807196</v>
       </c>
       <c r="R4">
-        <v>1933.535035270998</v>
+        <v>11808.43285084317</v>
       </c>
       <c r="S4">
-        <v>0.007771187427834187</v>
+        <v>0.007348765359570224</v>
       </c>
       <c r="T4">
-        <v>0.007771187427834187</v>
+        <v>0.005520056856679077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H5">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I5">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J5">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N5">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O5">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P5">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q5">
-        <v>2007.546179605754</v>
+        <v>2011.090855095865</v>
       </c>
       <c r="R5">
-        <v>2007.546179605754</v>
+        <v>12066.54513057519</v>
       </c>
       <c r="S5">
-        <v>0.008068650087616435</v>
+        <v>0.007509396884865205</v>
       </c>
       <c r="T5">
-        <v>0.008068650087616435</v>
+        <v>0.005640715921054926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H6">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I6">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J6">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N6">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O6">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P6">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q6">
-        <v>1230.090227851729</v>
+        <v>1282.060436546298</v>
       </c>
       <c r="R6">
-        <v>1230.090227851729</v>
+        <v>7692.362619277785</v>
       </c>
       <c r="S6">
-        <v>0.004943929920795693</v>
+        <v>0.004787203235505125</v>
       </c>
       <c r="T6">
-        <v>0.004943929920795693</v>
+        <v>0.003595928397693701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.2664917151386</v>
+        <v>42.33019849999999</v>
       </c>
       <c r="H7">
-        <v>42.2664917151386</v>
+        <v>84.66039699999999</v>
       </c>
       <c r="I7">
-        <v>0.04056785794165896</v>
+        <v>0.03880108177208133</v>
       </c>
       <c r="J7">
-        <v>0.04056785794165896</v>
+        <v>0.02631398137952337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N7">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O7">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P7">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q7">
-        <v>933.7397238825083</v>
+        <v>950.6445076047512</v>
       </c>
       <c r="R7">
-        <v>933.7397238825083</v>
+        <v>3802.578030419005</v>
       </c>
       <c r="S7">
-        <v>0.003752849713472142</v>
+        <v>0.003549698854197736</v>
       </c>
       <c r="T7">
-        <v>0.003752849713472142</v>
+        <v>0.001777581089295252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H8">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I8">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J8">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N8">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O8">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P8">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q8">
-        <v>1281.920741204945</v>
+        <v>1370.703407825393</v>
       </c>
       <c r="R8">
-        <v>1281.920741204945</v>
+        <v>8224.220446952357</v>
       </c>
       <c r="S8">
-        <v>0.005152245067095721</v>
+        <v>0.005118195368805192</v>
       </c>
       <c r="T8">
-        <v>0.005152245067095721</v>
+        <v>0.003844554568966194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H9">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I9">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J9">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N9">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P9">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q9">
-        <v>1209.817918924098</v>
+        <v>1386.120773873152</v>
       </c>
       <c r="R9">
-        <v>1209.817918924098</v>
+        <v>12475.08696485836</v>
       </c>
       <c r="S9">
-        <v>0.004862452259725281</v>
+        <v>0.005175763688147158</v>
       </c>
       <c r="T9">
-        <v>0.004862452259725281</v>
+        <v>0.005831695891222099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H10">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I10">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J10">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N10">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O10">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P10">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q10">
-        <v>1207.877069551479</v>
+        <v>1298.169384306549</v>
       </c>
       <c r="R10">
-        <v>1207.877069551479</v>
+        <v>11683.52445875894</v>
       </c>
       <c r="S10">
-        <v>0.004854651674802495</v>
+        <v>0.004847353915332828</v>
       </c>
       <c r="T10">
-        <v>0.004854651674802495</v>
+        <v>0.005461666261170709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H11">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I11">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J11">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N11">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O11">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P11">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q11">
-        <v>1254.111744642684</v>
+        <v>1326.545161473097</v>
       </c>
       <c r="R11">
-        <v>1254.111744642684</v>
+        <v>11938.90645325787</v>
       </c>
       <c r="S11">
-        <v>0.00504047624960696</v>
+        <v>0.004953308836325169</v>
       </c>
       <c r="T11">
-        <v>0.00504047624960696</v>
+        <v>0.005581049006333673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H12">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I12">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J12">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N12">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O12">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P12">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q12">
-        <v>768.4359231138585</v>
+        <v>845.6659551243935</v>
       </c>
       <c r="R12">
-        <v>768.4359231138585</v>
+        <v>7610.993596119541</v>
       </c>
       <c r="S12">
-        <v>0.003088467224987007</v>
+        <v>0.003157709793645781</v>
       </c>
       <c r="T12">
-        <v>0.003088467224987007</v>
+        <v>0.003557891035760964</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.4038278188986</v>
+        <v>27.92162266666667</v>
       </c>
       <c r="H13">
-        <v>26.4038278188986</v>
+        <v>83.76486800000001</v>
       </c>
       <c r="I13">
-        <v>0.02534269329217708</v>
+        <v>0.0255937652713472</v>
       </c>
       <c r="J13">
-        <v>0.02534269329217708</v>
+        <v>0.02603563478222566</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N13">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O13">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P13">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q13">
-        <v>583.3061107418393</v>
+        <v>627.0591249762034</v>
       </c>
       <c r="R13">
-        <v>583.3061107418393</v>
+        <v>3762.354749857221</v>
       </c>
       <c r="S13">
-        <v>0.002344400815959618</v>
+        <v>0.002341433669091068</v>
       </c>
       <c r="T13">
-        <v>0.002344400815959618</v>
+        <v>0.001758778018772024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H14">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I14">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J14">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N14">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O14">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P14">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q14">
-        <v>20515.45401198202</v>
+        <v>21650.30146396918</v>
       </c>
       <c r="R14">
-        <v>20515.45401198202</v>
+        <v>129901.8087838151</v>
       </c>
       <c r="S14">
-        <v>0.08245490016263397</v>
+        <v>0.08084204945687194</v>
       </c>
       <c r="T14">
-        <v>0.08245490016263397</v>
+        <v>0.06072485479907786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H15">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I15">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J15">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N15">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P15">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q15">
-        <v>19361.54325362543</v>
+        <v>21893.81922339746</v>
       </c>
       <c r="R15">
-        <v>19361.54325362543</v>
+        <v>197044.3730105771</v>
       </c>
       <c r="S15">
-        <v>0.07781714774821934</v>
+        <v>0.08175134278861099</v>
       </c>
       <c r="T15">
-        <v>0.07781714774821934</v>
+        <v>0.09211181162192912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H16">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I16">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J16">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N16">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O16">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P16">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q16">
-        <v>19330.48251424562</v>
+        <v>20504.62438560765</v>
       </c>
       <c r="R16">
-        <v>19330.48251424562</v>
+        <v>184541.6194704688</v>
       </c>
       <c r="S16">
-        <v>0.07769230965479747</v>
+        <v>0.07656410057081853</v>
       </c>
       <c r="T16">
-        <v>0.07769230965479747</v>
+        <v>0.08626718250998772</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H17">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I17">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J17">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N17">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O17">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P17">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q17">
-        <v>20070.40762825928</v>
+        <v>20952.82063756329</v>
       </c>
       <c r="R17">
-        <v>20070.40762825928</v>
+        <v>188575.3857380696</v>
       </c>
       <c r="S17">
-        <v>0.08066618736514153</v>
+        <v>0.07823766172779745</v>
       </c>
       <c r="T17">
-        <v>0.08066618736514153</v>
+        <v>0.0881528365527357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H18">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I18">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J18">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N18">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O18">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P18">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q18">
-        <v>12297.80542202565</v>
+        <v>13357.31914120318</v>
       </c>
       <c r="R18">
-        <v>12297.80542202565</v>
+        <v>120215.8722708286</v>
       </c>
       <c r="S18">
-        <v>0.04942685244501001</v>
+        <v>0.04987612095939853</v>
       </c>
       <c r="T18">
-        <v>0.04942685244501001</v>
+        <v>0.0561969956887937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>422.558507673217</v>
+        <v>441.022868</v>
       </c>
       <c r="H19">
-        <v>422.558507673217</v>
+        <v>1323.068604</v>
       </c>
       <c r="I19">
-        <v>0.4055764463930328</v>
+        <v>0.4042542905775846</v>
       </c>
       <c r="J19">
-        <v>0.4055764463930328</v>
+        <v>0.4112336327632385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N19">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O19">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P19">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q19">
-        <v>9335.046469865274</v>
+        <v>9904.41769821361</v>
       </c>
       <c r="R19">
-        <v>9335.046469865274</v>
+        <v>59426.50618928167</v>
       </c>
       <c r="S19">
-        <v>0.03751904901723042</v>
+        <v>0.03698301507408711</v>
       </c>
       <c r="T19">
-        <v>0.03751904901723042</v>
+        <v>0.02777995159071447</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H20">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I20">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J20">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N20">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O20">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P20">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q20">
-        <v>24666.59957415599</v>
+        <v>26361.44186435461</v>
       </c>
       <c r="R20">
-        <v>24666.59957415599</v>
+        <v>158168.6511861276</v>
       </c>
       <c r="S20">
-        <v>0.09913901998224441</v>
+        <v>0.09843340936842132</v>
       </c>
       <c r="T20">
-        <v>0.09913901998224441</v>
+        <v>0.07393868081566148</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H21">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I21">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J21">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N21">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P21">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q21">
-        <v>23279.20377954823</v>
+        <v>26657.94947967764</v>
       </c>
       <c r="R21">
-        <v>23279.20377954823</v>
+        <v>239921.5453170988</v>
       </c>
       <c r="S21">
-        <v>0.09356285375830282</v>
+        <v>0.09954056639079238</v>
       </c>
       <c r="T21">
-        <v>0.09356285375830282</v>
+        <v>0.1121554898961994</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H22">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I22">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J22">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N22">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O22">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P22">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q22">
-        <v>23241.85813658505</v>
+        <v>24966.46361212041</v>
       </c>
       <c r="R22">
-        <v>23241.85813658505</v>
+        <v>224698.1725090837</v>
       </c>
       <c r="S22">
-        <v>0.09341275562933916</v>
+        <v>0.09322457192816413</v>
       </c>
       <c r="T22">
-        <v>0.09341275562933916</v>
+        <v>0.1050390600945374</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H23">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I23">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J23">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N23">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O23">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P23">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q23">
-        <v>24131.50145091662</v>
+        <v>25512.18808895567</v>
       </c>
       <c r="R23">
-        <v>24131.50145091662</v>
+        <v>229609.6928006011</v>
       </c>
       <c r="S23">
-        <v>0.09698837480017115</v>
+        <v>0.09526230268307131</v>
       </c>
       <c r="T23">
-        <v>0.09698837480017115</v>
+        <v>0.1073350354880862</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H24">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I24">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J24">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N24">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O24">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P24">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q24">
-        <v>14786.17250238883</v>
+        <v>16263.89325758166</v>
       </c>
       <c r="R24">
-        <v>14786.17250238883</v>
+        <v>146375.0393182349</v>
       </c>
       <c r="S24">
-        <v>0.05942799885198188</v>
+        <v>0.06072924505364635</v>
       </c>
       <c r="T24">
-        <v>0.05942799885198188</v>
+        <v>0.06842555228466217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>508.059997080278</v>
+        <v>536.9901530000001</v>
       </c>
       <c r="H25">
-        <v>508.059997080278</v>
+        <v>1610.970459</v>
       </c>
       <c r="I25">
-        <v>0.4876417452932383</v>
+        <v>0.4922206740267346</v>
       </c>
       <c r="J25">
-        <v>0.4876417452932383</v>
+        <v>0.5007187322909461</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N25">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O25">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P25">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q25">
-        <v>11223.92188560974</v>
+        <v>12059.63491022338</v>
       </c>
       <c r="R25">
-        <v>11223.92188560974</v>
+        <v>72357.80946134025</v>
       </c>
       <c r="S25">
-        <v>0.04511074227119885</v>
+        <v>0.04503057860263915</v>
       </c>
       <c r="T25">
-        <v>0.04511074227119885</v>
+        <v>0.03382491371179953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H26">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I26">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J26">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N26">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O26">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P26">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q26">
-        <v>1427.640549134326</v>
+        <v>1446.878669978145</v>
       </c>
       <c r="R26">
-        <v>1427.640549134326</v>
+        <v>8681.272019868869</v>
       </c>
       <c r="S26">
-        <v>0.005737916347269088</v>
+        <v>0.005402633177700901</v>
       </c>
       <c r="T26">
-        <v>0.005737916347269088</v>
+        <v>0.004058211258283235</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H27">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I27">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J27">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N27">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O27">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P27">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q27">
-        <v>1347.341580963792</v>
+        <v>1463.152838375477</v>
       </c>
       <c r="R27">
-        <v>1347.341580963792</v>
+        <v>13168.37554537929</v>
       </c>
       <c r="S27">
-        <v>0.00541518191498224</v>
+        <v>0.005463400790042748</v>
       </c>
       <c r="T27">
-        <v>0.00541518191498224</v>
+        <v>0.006155785669341013</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H28">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I28">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J28">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N28">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O28">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P28">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q28">
-        <v>1345.180109372726</v>
+        <v>1370.313651697782</v>
       </c>
       <c r="R28">
-        <v>1345.180109372726</v>
+        <v>12332.82286528003</v>
       </c>
       <c r="S28">
-        <v>0.005406494613977758</v>
+        <v>0.005116740022596876</v>
       </c>
       <c r="T28">
-        <v>0.005406494613977758</v>
+        <v>0.005765192069059061</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H29">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I29">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J29">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N29">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O29">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P29">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q29">
-        <v>1396.670419822194</v>
+        <v>1400.266379977247</v>
       </c>
       <c r="R29">
-        <v>1396.670419822194</v>
+        <v>12602.39741979522</v>
       </c>
       <c r="S29">
-        <v>0.005613442430242232</v>
+        <v>0.005228583266210206</v>
       </c>
       <c r="T29">
-        <v>0.005613442430242232</v>
+        <v>0.005891209372695716</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H30">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I30">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J30">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N30">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O30">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P30">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q30">
-        <v>855.7863586930004</v>
+        <v>892.6628659495135</v>
       </c>
       <c r="R30">
-        <v>855.7863586930004</v>
+        <v>8033.965793545621</v>
       </c>
       <c r="S30">
-        <v>0.003439542635778996</v>
+        <v>0.003333195876163729</v>
       </c>
       <c r="T30">
-        <v>0.003439542635778996</v>
+        <v>0.003755616729600154</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>29.4052307876608</v>
+        <v>29.47333466666667</v>
       </c>
       <c r="H31">
-        <v>29.4052307876608</v>
+        <v>88.42000400000001</v>
       </c>
       <c r="I31">
-        <v>0.02822347388979662</v>
+        <v>0.02701610927946045</v>
       </c>
       <c r="J31">
-        <v>0.02822347388979662</v>
+        <v>0.02748253517915091</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N31">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O31">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P31">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q31">
-        <v>649.6122806080356</v>
+        <v>661.9072131604435</v>
       </c>
       <c r="R31">
-        <v>649.6122806080356</v>
+        <v>3971.443278962661</v>
       </c>
       <c r="S31">
-        <v>0.00261089594754631</v>
+        <v>0.002471556146745995</v>
       </c>
       <c r="T31">
-        <v>0.00261089594754631</v>
+        <v>0.001856520080171731</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H32">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I32">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J32">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N32">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O32">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P32">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q32">
-        <v>639.7684498140044</v>
+        <v>648.783377189584</v>
       </c>
       <c r="R32">
-        <v>639.7684498140044</v>
+        <v>2595.133508758336</v>
       </c>
       <c r="S32">
-        <v>0.002571332012725971</v>
+        <v>0.002422551850044365</v>
       </c>
       <c r="T32">
-        <v>0.002571332012725971</v>
+        <v>0.001213140193958608</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H33">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I33">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J33">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N33">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O33">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P33">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q33">
-        <v>603.7840793649598</v>
+        <v>656.0807478349973</v>
       </c>
       <c r="R33">
-        <v>603.7840793649598</v>
+        <v>3936.484487009984</v>
       </c>
       <c r="S33">
-        <v>0.002426705056332109</v>
+        <v>0.002449800172641785</v>
       </c>
       <c r="T33">
-        <v>0.002426705056332109</v>
+        <v>0.001840177986207432</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H34">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I34">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J34">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N34">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O34">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P34">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q34">
-        <v>602.8154592665943</v>
+        <v>614.451465215744</v>
       </c>
       <c r="R34">
-        <v>602.8154592665943</v>
+        <v>3686.708791294464</v>
       </c>
       <c r="S34">
-        <v>0.002422812016799101</v>
+        <v>0.002294356770157966</v>
       </c>
       <c r="T34">
-        <v>0.002422812016799101</v>
+        <v>0.001723416002701061</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H35">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I35">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J35">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N35">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O35">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P35">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q35">
-        <v>625.8898081401065</v>
+        <v>627.8823302996054</v>
       </c>
       <c r="R35">
-        <v>625.8898081401065</v>
+        <v>3767.293981797632</v>
       </c>
       <c r="S35">
-        <v>0.00251555152583322</v>
+        <v>0.002344507511068667</v>
       </c>
       <c r="T35">
-        <v>0.00251555152583322</v>
+        <v>0.00176108694845675</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H36">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I36">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J36">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N36">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O36">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P36">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q36">
-        <v>383.5034753005448</v>
+        <v>400.27186859504</v>
       </c>
       <c r="R36">
-        <v>383.5034753005448</v>
+        <v>2401.63121157024</v>
       </c>
       <c r="S36">
-        <v>0.001541361977632128</v>
+        <v>0.001494611899562085</v>
       </c>
       <c r="T36">
-        <v>0.001541361977632128</v>
+        <v>0.001122684187148184</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.1773638181208</v>
+        <v>13.215904</v>
       </c>
       <c r="H37">
-        <v>13.1773638181208</v>
+        <v>26.431808</v>
       </c>
       <c r="I37">
-        <v>0.01264778319009646</v>
+        <v>0.01211407907279189</v>
       </c>
       <c r="J37">
-        <v>0.01264778319009646</v>
+        <v>0.008215483604915494</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N37">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O37">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P37">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q37">
-        <v>291.1107014974811</v>
+        <v>296.80055836808</v>
       </c>
       <c r="R37">
-        <v>291.1107014974811</v>
+        <v>1187.20223347232</v>
       </c>
       <c r="S37">
-        <v>0.001170020600773931</v>
+        <v>0.001108250869317026</v>
       </c>
       <c r="T37">
-        <v>0.001170020600773931</v>
+        <v>0.000554978286443459</v>
       </c>
     </row>
   </sheetData>
